--- a/bots/crawl_ch/output/electronics_2022-08-11.xlsx
+++ b/bots/crawl_ch/output/electronics_2022-08-11.xlsx
@@ -579,7 +579,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -723,7 +723,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -869,7 +869,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -940,7 +940,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1230,7 +1230,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1522,7 +1522,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -1808,48 +1808,50 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6753557</t>
+          <t>3494865</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
+          <t>Varta Electronics CR2430 1er Bli</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1859,7 +1861,7 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -1869,39 +1871,39 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6761133</t>
+          <t>6753557</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-4-stueck/p/6753557</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
@@ -1920,7 +1922,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1930,7 +1932,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1940,60 +1942,58 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS AAA/LR03 4 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3494865</t>
+          <t>6761133</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2430-1er-bli/p/3494865</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterien-plus-clr14-2-stueck/p/6761133</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -2018,55 +2018,53 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2430 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien PLUS C/LR14 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3494233</t>
+          <t>6801740</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1ST</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2076,7 +2074,7 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -2086,34 +2084,34 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AA/LR6 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6761135</t>
+          <t>3494233</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
+          <t>Varta Electronics CR2032 1er Bli</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-cr2032-1er-bli/p/3494233</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2121,23 +2119,25 @@
           <t>1ST</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>9.95/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -2162,12 +2162,12 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
+          <t>Varta Electronics CR2032 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2238,29 +2238,29 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6577801</t>
+          <t>6761135</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-batterie-plus-9v6lr61-1-stueck/p/6761135</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -2279,7 +2279,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>4.98/1ST</t>
+          <t>9.95/1ST</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -2289,7 +2289,7 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>4.98</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2304,34 +2304,34 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
+          <t>Duracell Batterie PLUS 9V/6LR61 1 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6801740</t>
+          <t>6577801</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-plus-aalr6-12-stueck/p/6801740</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/duracell-knopfzelle-cr2025-2-stueck/p/6577801</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>2ST</t>
         </is>
       </c>
       <c r="E27" t="inlineStr"/>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>4.98/1ST</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2360,7 +2360,7 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>4.98</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
@@ -2370,17 +2370,17 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AA/LR6 12 Stück 29.85 Schweizer Franken</t>
+          <t>Duracell Knopfzelle CR2025 2 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2451,50 +2451,48 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4014527</t>
+          <t>6801782</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>10ST</t>
-        </is>
-      </c>
-      <c r="E29" t="n">
-        <v>4</v>
-      </c>
+          <t>12ST</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Duracell</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>15.95</t>
+          <t>29.85</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>1.60/1ST</t>
+          <t>2.49/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2504,7 +2502,7 @@
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1.60</t>
+          <t>2.49</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2514,60 +2512,60 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
+          <t>Duracell Batterien Plus AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6753554</t>
+          <t>4014527</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-batterien-aalr6-10-stueck/p/4014527</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>10ST</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Duracell</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>11.95</t>
+          <t>15.95</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2.99/1ST</t>
+          <t>1.60/1ST</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
@@ -2577,7 +2575,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -2592,39 +2590,41 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
+          <t>Varta Longlife Batterien AA/LR6 10 Stück 15.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6801782</t>
+          <t>6753554</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/duracell-batterien-plus-aaalr03-12-stueck/p/6801782</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/duracell-batterien-optimum-aalr6-4-stueck/p/6753554</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>12ST</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>4ST</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2633,12 +2633,12 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>29.85</t>
+          <t>11.95</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>2.49/1ST</t>
+          <t>2.99/1ST</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>2.49</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -2658,17 +2658,17 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Duracell Batterien PLUS AAA/LR03 12 Stück 29.85 Schweizer Franken</t>
+          <t>Duracell Batterien Optimum AA/LR6 4 Stück 11.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2814,7 +2814,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2887,7 +2887,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -3011,7 +3011,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -3228,7 +3228,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -3281,312 +3281,332 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5763068</t>
+          <t>3494138</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8ST</t>
+        </is>
+      </c>
       <c r="E41" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>119.00</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+          <t>14.95</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>1.87/1ST</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3494138</t>
+          <t>5763068</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-batterien-aaalr03-8-stueck/p/3494138</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>8ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-aspira-sine-a700-beutelloser-zyklonstaubsauger/p/5763068</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F42" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>14.95</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>1.87/1ST</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>1.87</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>119.00</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 8 Stück 14.95 Schweizer Franken</t>
+          <t>satrap Aspira Sine A700 Beutelloser Zyklonstaubsauger 119.00 Schweizer Franken</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5751576</t>
+          <t>4358323</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E43" t="n">
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Rayovac</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+          <t>9.95</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>1.66/1ST</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
+          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4358323</t>
+          <t>5750424</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück</t>
+          <t>satrap Vento HT2 Reisehaartrockner</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/rayovac-hoergeraetebatterien-312-6-stueck/p/4358323</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Rayovac</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>9.95</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>1.66/1ST</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>1.66</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Rayovac Hörgerätebatterien 312 6 Stück 9.95 Schweizer Franken</t>
+          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5750424</t>
+          <t>3494131</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner</t>
+          <t>Varta Longlife Power AAA 4er Bli</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/beautygeraete/satrap-vento-ht2-reisehaartrockner/p/5750424</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4ST</t>
+        </is>
+      </c>
       <c r="E45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>2.24/1ST</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'beautygeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>satrap Vento HT2 Reisehaartrockner 29.95 Schweizer Franken</t>
+          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -3637,7 +3657,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -3688,24 +3708,24 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6973029</t>
+          <t>5751576</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565</t>
+          <t>satrap Toasty 1 Toaster</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-toasty-1-toaster/p/5751576</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -3713,16 +3733,16 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Severin</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>99.95</t>
+          <t>29.95</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -3736,85 +3756,65 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
+          <t>satrap Toasty 1 Toaster 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3494131</t>
+          <t>6973029</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli</t>
+          <t>Severin Tischgrill PG 8565</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aaa/varta-longlife-power-aaa-4er-bli/p/3494131</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>4ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/severin-tischgrill-pg-8565/p/6973029</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
         <v>3</v>
       </c>
-      <c r="F49" t="n">
-        <v>3.5</v>
-      </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>Severin</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>2.24/1ST</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>99.95</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aaa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Varta Longlife Power AAA 4er Bli 8.95 Schweizer Franken</t>
+          <t>Severin Tischgrill PG 8565 99.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -3865,7 +3865,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -3936,129 +3936,129 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>4096751</t>
+          <t>5872158</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
+          <t>satrap Tischventilator Venti 1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>6ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>12.95</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>2.16/1ST</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
+          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>5872158</t>
+          <t>4096751</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/haushaltsgeraete-kabel/satrap-tischventilator-venti-1/p/5872158</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-power-batterien-aalr6-6-stueck/p/4096751</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6ST</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
         <v>0</v>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>29.95</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+          <t>12.95</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>2.16/1ST</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'haushaltsgeraete-kabel']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>satrap Tischventilator Venti 1 29.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AA/LR6 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -4213,7 +4213,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -4388,36 +4388,34 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>4119046</t>
+          <t>3494007</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli</t>
+          <t>Varta Longlife Power D 2er Bli</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>4ST</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>1</v>
-      </c>
+          <t>2ST</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G60" t="inlineStr">
         <is>
@@ -4426,12 +4424,12 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>14.95</t>
+          <t>8.95</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>3.74/1ST</t>
+          <t>4.48/1ST</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
@@ -4441,7 +4439,7 @@
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>3.74</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -4451,60 +4449,60 @@
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
+          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>4905486</t>
+          <t>4119046</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V</t>
+          <t>Varta Ultra Lithium AA 4er Bli</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-ultra-lithium-aa-4er-bli/p/4119046</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E61" t="n">
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Varta</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>14.95</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>5.95/1ST</t>
+          <t>3.74/1ST</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -4514,7 +4512,7 @@
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>5.95</t>
+          <t>3.74</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -4524,139 +4522,141 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
+          <t>Varta Ultra Lithium AA 4er Bli 14.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>5831402</t>
+          <t>4905486</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2</t>
+          <t>Alkaline Batterie 3LR12/4.5V</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/alkaline-batterie-3lr1245v/p/4905486</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>satrap</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>49.95</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>5.95/1ST</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
+          <t>Alkaline Batterie 3LR12/4.5V 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>3494007</t>
+          <t>5831402</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli</t>
+          <t>Satrap Mikrowelle Micro M2</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-d-2er-bli/p/3494007</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/elektroartikel-batterien/elektrogeraete/kuechengeraete/satrap-mikrowelle-micro-m2/p/5831402</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="n">
         <v>0</v>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Varta</t>
+          <t>satrap</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>8.95</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>4.48/1ST</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>49.95</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'elektrogeraete', 'kuechengeraete']</t>
         </is>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>Varta Longlife Power D 2er Bli 8.95 Schweizer Franken</t>
+          <t>Satrap Mikrowelle Micro M2 50% Aktion 49.95 Schweizer Franken statt 99.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -4729,7 +4729,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -4780,7 +4780,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -4853,29 +4853,29 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>4096628</t>
+          <t>3494230</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
+          <t>Varta Electronics V13GS / V357 1er Bli</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>6ST</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4889,12 +4889,12 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>12.95</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>2.16/1ST</t>
+          <t>4.95/1ST</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -4904,7 +4904,7 @@
       </c>
       <c r="K67" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>4.95</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
@@ -4919,34 +4919,34 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
+          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>3494230</t>
+          <t>4589934</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli</t>
+          <t>Varta Longlife AA 4er Bli</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-electronics-v13gs--v357-1er-bli/p/3494230</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>4ST</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4960,12 +4960,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>7.95</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>4.95/1ST</t>
+          <t>1.99/1ST</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>4.95</t>
+          <t>1.99</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -4985,39 +4985,39 @@
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
         </is>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>Varta Electronics V13GS / V357 1er Bli 4.95 Schweizer Franken</t>
+          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>4589934</t>
+          <t>4096628</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/aa/varta-longlife-aa-4er-bli/p/4589934</t>
+          <t>/de/haushalt-tier/elektroartikel-batterien/batterien/andere-batterien/varta-longlife-power-batterien-aaalr03-6-stueck/p/4096628</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>4ST</t>
+          <t>6ST</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -5031,12 +5031,12 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>7.95</t>
+          <t>12.95</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>1.99/1ST</t>
+          <t>2.16/1ST</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -5046,7 +5046,7 @@
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>1.99</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -5056,17 +5056,17 @@
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'aa']</t>
+          <t>['haushalt-tier', 'elektroartikel-batterien', 'batterien', 'andere-batterien']</t>
         </is>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>Varta Longlife AA 4er Bli 7.95 Schweizer Franken</t>
+          <t>Varta Longlife Power Batterien AAA/LR03 6 Stück 12.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5137,7 +5137,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5188,7 +5188,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5292,7 +5292,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5394,7 +5394,7 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5445,7 +5445,7 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5496,7 +5496,7 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5549,7 +5549,7 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5602,7 +5602,7 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5653,7 +5653,7 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5704,7 +5704,7 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5755,7 +5755,7 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5806,7 +5806,7 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5859,7 +5859,7 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -6014,7 +6014,7 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -6085,7 +6085,7 @@
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -6156,7 +6156,7 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -6227,7 +6227,7 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -6298,7 +6298,7 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>2022-08-11 07:01:11</t>
+          <t>2022-08-11 20:57:00</t>
         </is>
       </c>
     </row>
